--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H2">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I2">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J2">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.88590828561996</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N2">
-        <v>4.88590828561996</v>
+        <v>15.7807</v>
       </c>
       <c r="O2">
-        <v>0.8088095186196025</v>
+        <v>0.8086411516342948</v>
       </c>
       <c r="P2">
-        <v>0.8088095186196025</v>
+        <v>0.8604254456975129</v>
       </c>
       <c r="Q2">
-        <v>1.730577105009158</v>
+        <v>1.2978678908</v>
       </c>
       <c r="R2">
-        <v>1.730577105009158</v>
+        <v>11.6808110172</v>
       </c>
       <c r="S2">
-        <v>0.1030638687194479</v>
+        <v>0.03658861241664249</v>
       </c>
       <c r="T2">
-        <v>0.1030638687194479</v>
+        <v>0.04608112334668311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H3">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I3">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J3">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.15495569179558</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N3">
-        <v>1.15495569179558</v>
+        <v>0.173483</v>
       </c>
       <c r="O3">
-        <v>0.1911904813803975</v>
+        <v>0.008889687587304263</v>
       </c>
       <c r="P3">
-        <v>0.1911904813803975</v>
+        <v>0.009458971249433906</v>
       </c>
       <c r="Q3">
-        <v>0.4090825616608621</v>
+        <v>0.014267935852</v>
       </c>
       <c r="R3">
-        <v>0.4090825616608621</v>
+        <v>0.128411422668</v>
       </c>
       <c r="S3">
-        <v>0.02436275812755967</v>
+        <v>0.0004022319826038382</v>
       </c>
       <c r="T3">
-        <v>0.02436275812755967</v>
+        <v>0.0005065866229985126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.42542255911418</v>
+        <v>0.246732</v>
       </c>
       <c r="H4">
-        <v>2.42542255911418</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I4">
-        <v>0.8725733731529924</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J4">
-        <v>0.8725733731529924</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.88590828561996</v>
+        <v>0.012461</v>
       </c>
       <c r="N4">
-        <v>4.88590828561996</v>
+        <v>0.037383</v>
       </c>
       <c r="O4">
-        <v>0.8088095186196025</v>
+        <v>0.001915595136562057</v>
       </c>
       <c r="P4">
-        <v>0.8088095186196025</v>
+        <v>0.002038267278163207</v>
       </c>
       <c r="Q4">
-        <v>11.85039217770554</v>
+        <v>0.003074527452</v>
       </c>
       <c r="R4">
-        <v>11.85039217770554</v>
+        <v>0.027670747068</v>
       </c>
       <c r="S4">
-        <v>0.7057456499001545</v>
+        <v>8.667499527722765E-05</v>
       </c>
       <c r="T4">
-        <v>0.7057456499001545</v>
+        <v>0.0001091618644337105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.246732</v>
+      </c>
+      <c r="H5">
+        <v>0.7401960000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.04524703243545731</v>
+      </c>
+      <c r="J5">
+        <v>0.05355620708000677</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.174506</v>
+      </c>
+      <c r="N5">
+        <v>2.349012</v>
+      </c>
+      <c r="O5">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P5">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q5">
+        <v>0.289788214392</v>
+      </c>
+      <c r="R5">
+        <v>1.738729286352</v>
+      </c>
+      <c r="S5">
+        <v>0.008169513040933756</v>
+      </c>
+      <c r="T5">
+        <v>0.006859335245891426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.35167</v>
+      </c>
+      <c r="I6">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J6">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N6">
+        <v>15.7807</v>
+      </c>
+      <c r="O6">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P6">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q6">
+        <v>2.370033196555555</v>
+      </c>
+      <c r="R6">
+        <v>21.330298769</v>
+      </c>
+      <c r="S6">
+        <v>0.06681437044404881</v>
+      </c>
+      <c r="T6">
+        <v>0.08414862008712713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.35167</v>
+      </c>
+      <c r="I7">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J7">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.173483</v>
+      </c>
+      <c r="O7">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P7">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q7">
+        <v>0.02605464073444444</v>
+      </c>
+      <c r="R7">
+        <v>0.23449176661</v>
+      </c>
+      <c r="S7">
+        <v>0.0007345147824713048</v>
+      </c>
+      <c r="T7">
+        <v>0.0009250765212300518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.35167</v>
+      </c>
+      <c r="I8">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J8">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.012461</v>
+      </c>
+      <c r="N8">
+        <v>0.037383</v>
+      </c>
+      <c r="O8">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P8">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q8">
+        <v>0.005614386623333334</v>
+      </c>
+      <c r="R8">
+        <v>0.05052947961</v>
+      </c>
+      <c r="S8">
+        <v>0.0001582769845640483</v>
+      </c>
+      <c r="T8">
+        <v>0.000199340198135512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="H5">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="I5">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="J5">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.15495569179558</v>
-      </c>
-      <c r="N5">
-        <v>1.15495569179558</v>
-      </c>
-      <c r="O5">
-        <v>0.1911904813803975</v>
-      </c>
-      <c r="P5">
-        <v>0.1911904813803975</v>
-      </c>
-      <c r="Q5">
-        <v>2.801255589658324</v>
-      </c>
-      <c r="R5">
-        <v>2.801255589658324</v>
-      </c>
-      <c r="S5">
-        <v>0.1668277232528379</v>
-      </c>
-      <c r="T5">
-        <v>0.1668277232528379</v>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.35167</v>
+      </c>
+      <c r="I9">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J9">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.174506</v>
+      </c>
+      <c r="N9">
+        <v>2.349012</v>
+      </c>
+      <c r="O9">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P9">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q9">
+        <v>0.52918150834</v>
+      </c>
+      <c r="R9">
+        <v>3.17508905004</v>
+      </c>
+      <c r="S9">
+        <v>0.01491832662165011</v>
+      </c>
+      <c r="T9">
+        <v>0.01252581434081522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.34427</v>
+      </c>
+      <c r="I10">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J10">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N10">
+        <v>15.7807</v>
+      </c>
+      <c r="O10">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P10">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q10">
+        <v>0.6036468432222222</v>
+      </c>
+      <c r="R10">
+        <v>5.432821589</v>
+      </c>
+      <c r="S10">
+        <v>0.01701760290068781</v>
+      </c>
+      <c r="T10">
+        <v>0.02143263180909191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.34427</v>
+      </c>
+      <c r="I11">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J11">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.173483</v>
+      </c>
+      <c r="O11">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P11">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q11">
+        <v>0.006636110267777778</v>
+      </c>
+      <c r="R11">
+        <v>0.05972499241</v>
+      </c>
+      <c r="S11">
+        <v>0.0001870807254443733</v>
+      </c>
+      <c r="T11">
+        <v>0.0002356167511033536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.34427</v>
+      </c>
+      <c r="I12">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J12">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.012461</v>
+      </c>
+      <c r="N12">
+        <v>0.037383</v>
+      </c>
+      <c r="O12">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P12">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q12">
+        <v>0.001429982823333333</v>
+      </c>
+      <c r="R12">
+        <v>0.01286984541</v>
+      </c>
+      <c r="S12">
+        <v>4.03131071014855E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.077189699565183E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.34427</v>
+      </c>
+      <c r="I13">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J13">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.174506</v>
+      </c>
+      <c r="N13">
+        <v>2.349012</v>
+      </c>
+      <c r="O13">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P13">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q13">
+        <v>0.13478239354</v>
+      </c>
+      <c r="R13">
+        <v>0.80869436124</v>
+      </c>
+      <c r="S13">
+        <v>0.003799693938635529</v>
+      </c>
+      <c r="T13">
+        <v>0.003190321678451439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J14">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N14">
+        <v>15.7807</v>
+      </c>
+      <c r="O14">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P14">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q14">
+        <v>11.06162193788889</v>
+      </c>
+      <c r="R14">
+        <v>99.55459744100001</v>
+      </c>
+      <c r="S14">
+        <v>0.3118417526574088</v>
+      </c>
+      <c r="T14">
+        <v>0.3927456473401444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J15">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.173483</v>
+      </c>
+      <c r="O15">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P15">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q15">
+        <v>0.1216044509211111</v>
+      </c>
+      <c r="R15">
+        <v>1.09444005829</v>
+      </c>
+      <c r="S15">
+        <v>0.003428190306910672</v>
+      </c>
+      <c r="T15">
+        <v>0.00431759637642882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J16">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.012461</v>
+      </c>
+      <c r="N16">
+        <v>0.037383</v>
+      </c>
+      <c r="O16">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P16">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q16">
+        <v>0.02620394614333334</v>
+      </c>
+      <c r="R16">
+        <v>0.23583551529</v>
+      </c>
+      <c r="S16">
+        <v>0.0007387238994209326</v>
+      </c>
+      <c r="T16">
+        <v>0.0009303776470319199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J17">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.174506</v>
+      </c>
+      <c r="N17">
+        <v>2.349012</v>
+      </c>
+      <c r="O17">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P17">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q17">
+        <v>2.469841262260001</v>
+      </c>
+      <c r="R17">
+        <v>14.81904757356</v>
+      </c>
+      <c r="S17">
+        <v>0.06962809182355204</v>
+      </c>
+      <c r="T17">
+        <v>0.05846155357809017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.5380765</v>
+      </c>
+      <c r="H18">
+        <v>5.076153</v>
+      </c>
+      <c r="I18">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J18">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N18">
+        <v>15.7807</v>
+      </c>
+      <c r="O18">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P18">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q18">
+        <v>13.35087460785</v>
+      </c>
+      <c r="R18">
+        <v>80.10524764709999</v>
+      </c>
+      <c r="S18">
+        <v>0.3763788132155071</v>
+      </c>
+      <c r="T18">
+        <v>0.3160174231144663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.5380765</v>
+      </c>
+      <c r="H19">
+        <v>5.076153</v>
+      </c>
+      <c r="I19">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J19">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.173483</v>
+      </c>
+      <c r="O19">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P19">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q19">
+        <v>0.1467710418165</v>
+      </c>
+      <c r="R19">
+        <v>0.8806262508989999</v>
+      </c>
+      <c r="S19">
+        <v>0.004137669789874075</v>
+      </c>
+      <c r="T19">
+        <v>0.003474094977673168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.5380765</v>
+      </c>
+      <c r="H20">
+        <v>5.076153</v>
+      </c>
+      <c r="I20">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J20">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.012461</v>
+      </c>
+      <c r="N20">
+        <v>0.037383</v>
+      </c>
+      <c r="O20">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P20">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q20">
+        <v>0.0316269712665</v>
+      </c>
+      <c r="R20">
+        <v>0.189761827599</v>
+      </c>
+      <c r="S20">
+        <v>0.0008916061501983627</v>
+      </c>
+      <c r="T20">
+        <v>0.000748615671566413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.5380765</v>
+      </c>
+      <c r="H21">
+        <v>5.076153</v>
+      </c>
+      <c r="I21">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J21">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.174506</v>
+      </c>
+      <c r="N21">
+        <v>2.349012</v>
+      </c>
+      <c r="O21">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P21">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q21">
+        <v>2.980986077709</v>
+      </c>
+      <c r="R21">
+        <v>11.923944310836</v>
+      </c>
+      <c r="S21">
+        <v>0.08403794021706751</v>
+      </c>
+      <c r="T21">
+        <v>0.04704029093164174</v>
       </c>
     </row>
   </sheetData>
